--- a/parabolic/2025/08/21/parabolic.xlsx
+++ b/parabolic/2025/08/21/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>251</v>
+        <v>482</v>
       </c>
       <c r="D2" t="n">
-        <v>272900</v>
+        <v>196300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,16 +505,108 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="D3" t="n">
-        <v>147900</v>
+        <v>303100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>287A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>909</v>
+      </c>
+      <c r="D4" t="n">
+        <v>879900</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>226000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>6838</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>808</v>
+      </c>
+      <c r="D6" t="n">
+        <v>125500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/21/parabolic.xlsx
+++ b/parabolic/2025/08/21/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>196300</v>
+        <v>249200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>303100</v>
+        <v>341200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D4" t="n">
-        <v>879900</v>
+        <v>1180100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>516</v>
+        <v>708</v>
       </c>
       <c r="D5" t="n">
-        <v>226000</v>
+        <v>173600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6838</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>808</v>
+        <v>686</v>
       </c>
       <c r="D6" t="n">
-        <v>125500</v>
+        <v>424300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,108 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>675</v>
+        <v>911.0999755859375</v>
       </c>
       <c r="D7" t="n">
-        <v>100200</v>
+        <v>669300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>3961</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>654</v>
+      </c>
+      <c r="D8" t="n">
+        <v>202700</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>533</v>
+      </c>
+      <c r="D9" t="n">
+        <v>319000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6838</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>810</v>
+      </c>
+      <c r="D10" t="n">
+        <v>146500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>676</v>
+      </c>
+      <c r="D11" t="n">
+        <v>161600</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/21/parabolic.xlsx
+++ b/parabolic/2025/08/21/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D2" t="n">
-        <v>249200</v>
+        <v>312300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D3" t="n">
-        <v>341200</v>
+        <v>520800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D4" t="n">
-        <v>1180100</v>
+        <v>1426300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="D5" t="n">
-        <v>173600</v>
+        <v>212400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>686</v>
+        <v>296</v>
       </c>
       <c r="D6" t="n">
-        <v>424300</v>
+        <v>195000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3941</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>911.0999755859375</v>
+        <v>681</v>
       </c>
       <c r="D7" t="n">
-        <v>669300</v>
+        <v>507300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3961</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>654</v>
+        <v>913.7000122070312</v>
       </c>
       <c r="D8" t="n">
-        <v>202700</v>
+        <v>1436600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>533</v>
+        <v>641</v>
       </c>
       <c r="D9" t="n">
-        <v>319000</v>
+        <v>227600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6838</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>810</v>
+        <v>530</v>
       </c>
       <c r="D10" t="n">
-        <v>146500</v>
+        <v>412100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,131 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>676</v>
+        <v>123</v>
       </c>
       <c r="D11" t="n">
-        <v>161600</v>
+        <v>173400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>5131</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>199</v>
+      </c>
+      <c r="D12" t="n">
+        <v>148900</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>6838</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>809</v>
+      </c>
+      <c r="D13" t="n">
+        <v>158200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8285</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>409</v>
+      </c>
+      <c r="D14" t="n">
+        <v>133100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>671</v>
+      </c>
+      <c r="D15" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>727</v>
+      </c>
+      <c r="D16" t="n">
+        <v>842800</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
